--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F102CE-ACDB-4F79-AF2D-22CAA3ABB2B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894E408-FD91-4944-BA5E-23F49017D5F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
-    <sheet name="22.04" sheetId="4" r:id="rId3"/>
+    <sheet name="19.04" sheetId="4" r:id="rId3"/>
     <sheet name="24.04" sheetId="7" r:id="rId4"/>
     <sheet name="26.04" sheetId="9" r:id="rId5"/>
     <sheet name="28.04" sheetId="10" r:id="rId6"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'01.05'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'03.05'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'22.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'24.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'28.04'!$A$1:$F$1</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>As deevelopers we want game to contain proceduraly generated mazes</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Game should have smooth animation to change scenes</t>
+  </si>
+  <si>
+    <t>Proceduraly generated mazes</t>
+  </si>
+  <si>
+    <t>Fade in and fade our animations</t>
+  </si>
+  <si>
+    <t>Create algorithm for maze generation</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Implement creating walls and floors</t>
+  </si>
+  <si>
+    <t>Finish maze generation</t>
   </si>
 </sst>
 </file>
@@ -346,25 +379,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,25 +477,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7142857142857144</c:v>
+                  <c:v>5.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4285714285714288</c:v>
+                  <c:v>4.2857142857142865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1428571428571432</c:v>
+                  <c:v>3.4285714285714293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85714285714285754</c:v>
+                  <c:v>2.5714285714285721</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57142857142857184</c:v>
+                  <c:v>1.7142857142857149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28571428571428614</c:v>
+                  <c:v>0.85714285714285776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,7 +1587,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,24 +1634,34 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" s="5">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6"/>
+        <f>'Project Backloog'!C3</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="5">
-        <f>SUM(C2:H2)</f>
-        <v>0</v>
+        <f t="shared" ref="I2:I14" si="0">SUM(C2:H2)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5">
+        <f>'Project Backloog'!C4</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1626,7 +1669,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="5">
-        <f>SUM(C3:H3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +1683,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5">
-        <f>SUM(C4:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1654,7 +1697,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5">
-        <f>SUM(C5:H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1668,7 +1711,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="5">
-        <f>SUM(C6:H6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1725,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5">
-        <f>SUM(C7:H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1696,7 +1739,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="5">
-        <f>SUM(C8:H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1753,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5">
-        <f>SUM(C9:H9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1724,7 +1767,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="5">
-        <f>SUM(C10:H10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1738,7 +1781,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="5">
-        <f>SUM(C11:H11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1752,7 +1795,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="5">
-        <f>SUM(C12:H12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1809,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5">
-        <f>SUM(C13:H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1823,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5">
-        <f>SUM(C14:H14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1793,31 +1836,31 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B2:B14)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <f>B16-(SUM(C2:C14))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:H16" si="0">C16-(SUM(D2:D14))</f>
-        <v>2</v>
+        <f t="shared" ref="D16:H16" si="1">C16-(SUM(D2:D14))</f>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,31 +1869,31 @@
       </c>
       <c r="B17" s="5">
         <f>SUM(B2:B14)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7">
         <f>B17-($B$17/7)</f>
-        <v>1.7142857142857144</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" ref="D17:H17" si="1">C17-($B$17/7)</f>
-        <v>1.4285714285714288</v>
+        <f t="shared" ref="D17:H17" si="2">C17-($B$17/7)</f>
+        <v>4.2857142857142865</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1428571428571432</v>
+        <f t="shared" si="2"/>
+        <v>3.4285714285714293</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.85714285714285754</v>
+        <f t="shared" si="2"/>
+        <v>2.5714285714285721</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.57142857142857184</v>
+        <f t="shared" si="2"/>
+        <v>1.7142857142857149</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.28571428571428614</v>
+        <f t="shared" si="2"/>
+        <v>0.85714285714285776</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1864,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,6 +1933,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:D13">
     <sortCondition ref="B3:B13" customList="Critical,High,Medium,Low"/>
@@ -1900,10 +1971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,6 +2005,66 @@
       </c>
       <c r="F1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894E408-FD91-4944-BA5E-23F49017D5F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E810B84E-B270-4AD9-976B-33DFBCDFDD74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Finish maze generation</t>
+  </si>
+  <si>
+    <t>Users character should see game from first person view</t>
+  </si>
+  <si>
+    <t>First person view</t>
   </si>
 </sst>
 </file>
@@ -379,25 +385,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -477,25 +483,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.1428571428571432</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2857142857142865</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4285714285714293</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.8571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.5714285714285721</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7142857142857149</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85714285714285776</c:v>
+                  <c:v>1.2857142857142863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,8 +1680,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <f>'Project Backloog'!C5</f>
+        <v>3</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1836,31 +1847,31 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B2:B14)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5">
         <f>B16-(SUM(C2:C14))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ref="D16:H16" si="1">C16-(SUM(D2:D14))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1869,31 +1880,31 @@
       </c>
       <c r="B17" s="5">
         <f>SUM(B2:B14)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17" s="7">
         <f>B17-($B$17/7)</f>
-        <v>5.1428571428571432</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:H17" si="2">C17-($B$17/7)</f>
-        <v>4.2857142857142865</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>3.4285714285714293</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>2.5714285714285721</v>
+        <v>3.8571428571428577</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>1.7142857142857149</v>
+        <v>2.5714285714285721</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>0.85714285714285776</v>
+        <v>1.2857142857142863</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1907,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,6 +1970,20 @@
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1973,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E810B84E-B270-4AD9-976B-33DFBCDFDD74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650529E4-B014-414A-8D99-2945BFA693FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -81,15 +81,9 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>As deevelopers we want game to contain proceduraly generated mazes</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Game should have smooth animation to change scenes</t>
-  </si>
-  <si>
     <t>Proceduraly generated mazes</t>
   </si>
   <si>
@@ -111,17 +105,98 @@
     <t>Finish maze generation</t>
   </si>
   <si>
-    <t>Users character should see game from first person view</t>
-  </si>
-  <si>
     <t>First person view</t>
+  </si>
+  <si>
+    <t>As a owner I want the game to contain memory training exercise</t>
+  </si>
+  <si>
+    <t>As owner I want the game to contain proceduraly generated mazes</t>
+  </si>
+  <si>
+    <t>As owenr I want the game to have smooth animation to change scenes</t>
+  </si>
+  <si>
+    <t>As owner I want the game to be played from first person view</t>
+  </si>
+  <si>
+    <t>As a owner I want the game to coontain sound effects</t>
+  </si>
+  <si>
+    <t>As owenr I want the game to have menu</t>
+  </si>
+  <si>
+    <t>As owner I want the game to run on both pc and mobile</t>
+  </si>
+  <si>
+    <t>As owner I want the game to be optimized</t>
+  </si>
+  <si>
+    <t>As owner I want multiple levels</t>
+  </si>
+  <si>
+    <t>As owner I want the game to have nice skybox</t>
+  </si>
+  <si>
+    <t>As owner I want to have proccess report</t>
+  </si>
+  <si>
+    <t>As owner I want requirements</t>
+  </si>
+  <si>
+    <t>As owner I want group contract</t>
+  </si>
+  <si>
+    <t>As owner I want personal reflections</t>
+  </si>
+  <si>
+    <t>As owner I want project report</t>
+  </si>
+  <si>
+    <t>As owner I want the game to be controlled via on screen buttons on mobile devices</t>
+  </si>
+  <si>
+    <t>Memory training</t>
+  </si>
+  <si>
+    <t>Sound effects</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Mobile and PC</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Multiple levels</t>
+  </si>
+  <si>
+    <t>Skybox</t>
+  </si>
+  <si>
+    <t>Proccess report</t>
+  </si>
+  <si>
+    <t>Project report</t>
+  </si>
+  <si>
+    <t>Mobile controlls</t>
+  </si>
+  <si>
+    <t>Group contract</t>
+  </si>
+  <si>
+    <t>Kajul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,8 +229,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +254,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -213,8 +301,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,25 +475,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,25 +573,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7142857142857144</c:v>
+                  <c:v>83.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4285714285714288</c:v>
+                  <c:v>69.285714285714278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.1428571428571432</c:v>
+                  <c:v>55.428571428571416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8571428571428577</c:v>
+                  <c:v>41.571428571428555</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5714285714285721</c:v>
+                  <c:v>27.714285714285698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2857142857142863</c:v>
+                  <c:v>13.85714285714284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,7 +1683,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,14 +1731,14 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <f>'Project Backloog'!C3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1657,12 +1747,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="5">
         <f t="shared" ref="I2:I14" si="0">SUM(C2:H2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <f>'Project Backloog'!C4</f>
@@ -1681,11 +1771,11 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1699,8 +1789,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5">
+        <f>'Project Backloog'!C6</f>
+        <v>30</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1713,8 +1808,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5">
+        <f>'Project Backloog'!C7</f>
+        <v>5</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1727,8 +1827,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <f>'Project Backloog'!C8</f>
+        <v>2</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1741,8 +1846,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5">
+        <f>'Project Backloog'!C9</f>
+        <v>2</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1755,8 +1865,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5">
+        <f>'Project Backloog'!C10</f>
+        <v>8</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1769,8 +1884,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5">
+        <f>'Project Backloog'!C11</f>
+        <v>20</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1783,8 +1903,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5">
+        <f>'Project Backloog'!C12</f>
+        <v>2</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1797,9 +1922,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5">
+        <f>'Project Backloog'!C13</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1807,12 +1939,17 @@
       <c r="H12" s="6"/>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5">
+        <f>'Project Backloog'!C17</f>
+        <v>1</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1825,8 +1962,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5">
+        <f>'Project Backloog'!C18</f>
+        <v>10</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1847,31 +1989,31 @@
       </c>
       <c r="B16" s="5">
         <f>SUM(B2:B14)</f>
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C16" s="5">
         <f>B16-(SUM(C2:C14))</f>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ref="D16:H16" si="1">C16-(SUM(D2:D14))</f>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1880,31 +2022,31 @@
       </c>
       <c r="B17" s="5">
         <f>SUM(B2:B14)</f>
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C17" s="7">
         <f>B17-($B$17/7)</f>
-        <v>7.7142857142857144</v>
+        <v>83.142857142857139</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:H17" si="2">C17-($B$17/7)</f>
-        <v>6.4285714285714288</v>
+        <v>69.285714285714278</v>
       </c>
       <c r="E17" s="7">
         <f t="shared" si="2"/>
-        <v>5.1428571428571432</v>
+        <v>55.428571428571416</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="2"/>
-        <v>3.8571428571428577</v>
+        <v>41.571428571428555</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="2"/>
-        <v>2.5714285714285721</v>
+        <v>27.714285714285698</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>1.2857142857142863</v>
+        <v>13.85714285714284</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1918,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,17 +2087,17 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,13 +2105,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1980,10 +2122,278 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C14:C16)</f>
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11.1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11.3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1996,15 +2406,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -2040,16 +2451,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,16 +2471,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,16 +2491,36 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11.2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2576,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650529E4-B014-414A-8D99-2945BFA693FE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC63F2-20D3-4802-8662-5F1F13CC6DF6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
     <sheet name="19.04" sheetId="4" r:id="rId3"/>
-    <sheet name="24.04" sheetId="7" r:id="rId4"/>
-    <sheet name="26.04" sheetId="9" r:id="rId5"/>
+    <sheet name="22.04" sheetId="7" r:id="rId4"/>
+    <sheet name="25.04" sheetId="9" r:id="rId5"/>
     <sheet name="28.04" sheetId="10" r:id="rId6"/>
     <sheet name="01.05" sheetId="11" r:id="rId7"/>
     <sheet name="03.05" sheetId="12" r:id="rId8"/>
@@ -26,8 +26,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'01.05'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'03.05'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'24.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25.04'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'28.04'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -90,21 +90,12 @@
     <t>Fade in and fade our animations</t>
   </si>
   <si>
-    <t>Create algorithm for maze generation</t>
-  </si>
-  <si>
     <t>Marek</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Implement creating walls and floors</t>
-  </si>
-  <si>
-    <t>Finish maze generation</t>
-  </si>
-  <si>
     <t>First person view</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>As owner I want the game to be played from first person view</t>
   </si>
   <si>
-    <t>As a owner I want the game to coontain sound effects</t>
-  </si>
-  <si>
     <t>As owenr I want the game to have menu</t>
   </si>
   <si>
@@ -144,12 +132,6 @@
     <t>As owner I want requirements</t>
   </si>
   <si>
-    <t>As owner I want group contract</t>
-  </si>
-  <si>
-    <t>As owner I want personal reflections</t>
-  </si>
-  <si>
     <t>As owner I want project report</t>
   </si>
   <si>
@@ -190,6 +172,117 @@
   </si>
   <si>
     <t>Kajul</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>As owner I want the maze to look nice</t>
+  </si>
+  <si>
+    <t>Maze textures</t>
+  </si>
+  <si>
+    <t>Find algorythm for maze genration</t>
+  </si>
+  <si>
+    <t>Implement algorythm in project</t>
+  </si>
+  <si>
+    <t>Test maze generation</t>
+  </si>
+  <si>
+    <t>Find nice bush textures</t>
+  </si>
+  <si>
+    <t>As owner I want the maze to contain statues, which will lead to mini games</t>
+  </si>
+  <si>
+    <t>Statues</t>
+  </si>
+  <si>
+    <t>Write requirements</t>
+  </si>
+  <si>
+    <t>As a owner I want the game to contain sound effects</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>As owner I want nice background music</t>
+  </si>
+  <si>
+    <t>Background music</t>
+  </si>
+  <si>
+    <t>As owner I want project description</t>
+  </si>
+  <si>
+    <t>As owner I want project initiation</t>
+  </si>
+  <si>
+    <t>As owner I want project execution</t>
+  </si>
+  <si>
+    <t>As owner I want group policy</t>
+  </si>
+  <si>
+    <t>As owner I want group description</t>
+  </si>
+  <si>
+    <t>As owner I want abstract</t>
+  </si>
+  <si>
+    <t>As owner I want Introduction</t>
+  </si>
+  <si>
+    <t>As owner I want analysis</t>
+  </si>
+  <si>
+    <t>As owner I want design documentation</t>
+  </si>
+  <si>
+    <t>As owner I want implementation documentation</t>
+  </si>
+  <si>
+    <t>As owner I want test documentation</t>
+  </si>
+  <si>
+    <t>As owner I want project future</t>
+  </si>
+  <si>
+    <t>As owner I want conclusion and results</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Find nice pavement textures</t>
+  </si>
+  <si>
+    <t>Write introduction</t>
+  </si>
+  <si>
+    <t>Find statues on asset store</t>
+  </si>
+  <si>
+    <t>Import statues into scenes</t>
+  </si>
+  <si>
+    <t>Find nice skybox</t>
+  </si>
+  <si>
+    <t>As owner I want I want nice labyrinth exit in the center</t>
+  </si>
+  <si>
+    <t>Labyrinth exit</t>
+  </si>
+  <si>
+    <t>Find nice assets for labyrinth exit</t>
+  </si>
+  <si>
+    <t>Design nice looking exit with lights and particles</t>
   </si>
 </sst>
 </file>
@@ -290,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -302,6 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -412,7 +506,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$16</c:f>
+              <c:f>'Burndown Chart'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -470,30 +564,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$16:$H$16</c:f>
+              <c:f>'Burndown Chart'!$B$23:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>141.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,7 +604,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$17</c:f>
+              <c:f>'Burndown Chart'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -568,30 +662,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$17:$H$17</c:f>
+              <c:f>'Burndown Chart'!$B$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>97</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83.142857142857139</c:v>
+                  <c:v>126.85714285714286</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.285714285714278</c:v>
+                  <c:v>105.71428571428572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.428571428571416</c:v>
+                  <c:v>84.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.571428571428555</c:v>
+                  <c:v>63.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.714285714285698</c:v>
+                  <c:v>42.285714285714306</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.85714285714284</c:v>
+                  <c:v>21.142857142857164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,13 +1442,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1680,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,10 +1829,10 @@
       </c>
       <c r="B2" s="5">
         <f>'Project Backloog'!C3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1746,8 +1840,8 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I14" si="0">SUM(C2:H2)</f>
-        <v>4</v>
+        <f t="shared" ref="I2:I20" si="0">SUM(C2:H2)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1771,7 +1865,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
@@ -1790,7 +1884,7 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
@@ -1809,7 +1903,7 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5">
         <f>'Project Backloog'!C7</f>
@@ -1828,7 +1922,7 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
         <f>'Project Backloog'!C8</f>
@@ -1847,7 +1941,7 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5">
         <f>'Project Backloog'!C9</f>
@@ -1866,7 +1960,7 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5">
         <f>'Project Backloog'!C10</f>
@@ -1885,7 +1979,7 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <f>'Project Backloog'!C11</f>
@@ -1904,30 +1998,32 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <f>'Project Backloog'!C12</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5">
         <f>'Project Backloog'!C13</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1944,29 +2040,33 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5">
-        <f>'Project Backloog'!C17</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <f>'Project Backloog'!C19</f>
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.5</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5">
-        <f>'Project Backloog'!C18</f>
+        <f>'Project Backloog'!C29</f>
         <v>10</v>
       </c>
       <c r="C14" s="6"/>
@@ -1981,76 +2081,203 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="5">
+        <f>'Project Backloog'!C30</f>
+        <v>7</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5">
+        <f>'Project Backloog'!C31</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5">
+        <f>'Project Backloog'!C32</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B16" s="5">
-        <f>SUM(B2:B14)</f>
-        <v>97</v>
-      </c>
-      <c r="C16" s="5">
-        <f>B16-(SUM(C2:C14))</f>
-        <v>92</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:H16" si="1">C16-(SUM(D2:D14))</f>
-        <v>92</v>
-      </c>
-      <c r="E16" s="5">
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
+        <f>'Project Backloog'!C33</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5">
+        <f>'Project Backloog'!C34</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5">
+        <f>'Project Backloog'!C35</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUM(B2:B20)</f>
+        <v>148</v>
+      </c>
+      <c r="C23" s="5">
+        <f>B23-(SUM(C2:C14))</f>
+        <v>141.5</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:H23" si="1">C23-(SUM(D2:D14))</f>
+        <v>138</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="F16" s="5">
+        <v>138</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="G16" s="5">
+        <v>138</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="H16" s="5">
+        <v>138</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
-        <f>SUM(B2:B14)</f>
-        <v>97</v>
-      </c>
-      <c r="C17" s="7">
-        <f>B17-($B$17/7)</f>
-        <v>83.142857142857139</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" ref="D17:H17" si="2">C17-($B$17/7)</f>
-        <v>69.285714285714278</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="B24" s="5">
+        <f>SUM(B2:B20)</f>
+        <v>148</v>
+      </c>
+      <c r="C24" s="7">
+        <f>B24-($B$24/7)</f>
+        <v>126.85714285714286</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" ref="D24:H24" si="2">C24-($B$24/7)</f>
+        <v>105.71428571428572</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="2"/>
-        <v>55.428571428571416</v>
-      </c>
-      <c r="F17" s="7">
+        <v>84.571428571428584</v>
+      </c>
+      <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>41.571428571428555</v>
-      </c>
-      <c r="G17" s="7">
+        <v>63.428571428571445</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>27.714285714285698</v>
-      </c>
-      <c r="H17" s="7">
+        <v>42.285714285714306</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="2"/>
-        <v>13.85714285714284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>21.142857142857164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2060,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,10 +2321,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,7 +2352,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2366,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2147,13 +2374,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,7 +2422,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,21 +2436,21 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2234,39 +2461,39 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f>SUM(C14:C16)</f>
-        <v>4</v>
+        <f>SUM(C14:C18)</f>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="10">
         <v>11.1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
+      <c r="D14" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15">
         <v>11.2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,119 +2507,310 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C20:C28)</f>
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15</v>
+      <c r="A20" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
+      <c r="A21" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>17</v>
+      <c r="A22" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>12.4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>12.5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20</v>
+        <v>12.6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21</v>
+        <v>12.7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22</v>
+        <v>12.8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23</v>
+        <v>12.9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>25</v>
+      <c r="A30" s="10">
+        <v>14</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>26</v>
+      <c r="A31" s="10">
+        <v>15</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>17</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>30</v>
       </c>
     </row>
@@ -2406,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,16 +2889,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,36 +2909,56 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12.1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2530,15 +2968,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -2564,6 +3003,186 @@
       </c>
       <c r="F1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12.3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12.2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC63F2-20D3-4802-8662-5F1F13CC6DF6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6884D-5305-4EEA-BB8A-212668D76B49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -283,6 +283,21 @@
   </si>
   <si>
     <t>Design nice looking exit with lights and particles</t>
+  </si>
+  <si>
+    <t>As owner I want the goma to have pexeso minigame</t>
+  </si>
+  <si>
+    <t>Find card assets</t>
+  </si>
+  <si>
+    <t>Implement pexeso scripts</t>
+  </si>
+  <si>
+    <t>Implement gameplay scripts</t>
+  </si>
+  <si>
+    <t>Test pexeso minigame</t>
   </si>
 </sst>
 </file>
@@ -569,25 +584,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141.5</c:v>
+                  <c:v>117.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>138</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,25 +682,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>148</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.85714285714286</c:v>
+                  <c:v>106.28571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.71428571428572</c:v>
+                  <c:v>88.571428571428555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.571428571428584</c:v>
+                  <c:v>70.857142857142833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.428571428571445</c:v>
+                  <c:v>53.142857142857117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.285714285714306</c:v>
+                  <c:v>35.428571428571402</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.142857142857164</c:v>
+                  <c:v>17.714285714285687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,7 +1792,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,17 +1903,19 @@
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1906,8 +1923,8 @@
         <v>33</v>
       </c>
       <c r="B6" s="5">
-        <f>'Project Backloog'!C7</f>
-        <v>5</v>
+        <f>'Project Backloog'!C8</f>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1925,7 +1942,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="5">
-        <f>'Project Backloog'!C8</f>
+        <f>'Project Backloog'!C9</f>
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
@@ -1944,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="5">
-        <f>'Project Backloog'!C9</f>
+        <f>'Project Backloog'!C10</f>
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -1963,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="5">
-        <f>'Project Backloog'!C10</f>
+        <f>'Project Backloog'!C11</f>
         <v>8</v>
       </c>
       <c r="C9" s="6"/>
@@ -1982,7 +1999,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="5">
-        <f>'Project Backloog'!C11</f>
+        <f>'Project Backloog'!C12</f>
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
@@ -2001,7 +2018,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="5">
-        <f>'Project Backloog'!C12</f>
+        <f>'Project Backloog'!C13</f>
         <v>1</v>
       </c>
       <c r="C11" s="6"/>
@@ -2022,7 +2039,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="5">
-        <f>'Project Backloog'!C13</f>
+        <f>'Project Backloog'!C14</f>
         <v>11</v>
       </c>
       <c r="C12" s="6">
@@ -2043,7 +2060,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="5">
-        <f>'Project Backloog'!C19</f>
+        <f>'Project Backloog'!C20</f>
         <v>30</v>
       </c>
       <c r="C13" s="6">
@@ -2066,7 +2083,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="5">
-        <f>'Project Backloog'!C29</f>
+        <f>'Project Backloog'!C30</f>
         <v>10</v>
       </c>
       <c r="C14" s="6"/>
@@ -2085,7 +2102,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="5">
-        <f>'Project Backloog'!C30</f>
+        <f>'Project Backloog'!C31</f>
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
@@ -2106,7 +2123,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="5">
-        <f>'Project Backloog'!C31</f>
+        <f>'Project Backloog'!C32</f>
         <v>3</v>
       </c>
       <c r="C16" s="6"/>
@@ -2127,7 +2144,7 @@
         <v>57</v>
       </c>
       <c r="B17" s="5">
-        <f>'Project Backloog'!C32</f>
+        <f>'Project Backloog'!C33</f>
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
@@ -2146,7 +2163,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="5">
-        <f>'Project Backloog'!C33</f>
+        <f>'Project Backloog'!C34</f>
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
@@ -2165,7 +2182,7 @@
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="5">
-        <f>'Project Backloog'!C34</f>
+        <f>'Project Backloog'!C35</f>
         <v>0</v>
       </c>
       <c r="C19" s="6"/>
@@ -2182,7 +2199,7 @@
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
-        <f>'Project Backloog'!C35</f>
+        <f>'Project Backloog'!C36</f>
         <v>0</v>
       </c>
       <c r="C20" s="6"/>
@@ -2216,31 +2233,31 @@
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B20)</f>
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C23" s="5">
         <f>B23-(SUM(C2:C14))</f>
-        <v>141.5</v>
+        <v>117.5</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" ref="D23:H23" si="1">C23-(SUM(D2:D14))</f>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2249,31 +2266,31 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B20)</f>
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C24" s="7">
         <f>B24-($B$24/7)</f>
-        <v>126.85714285714286</v>
+        <v>106.28571428571428</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ref="D24:H24" si="2">C24-($B$24/7)</f>
-        <v>105.71428571428572</v>
+        <v>88.571428571428555</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="2"/>
-        <v>84.571428571428584</v>
+        <v>70.857142857142833</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>63.428571428571445</v>
+        <v>53.142857142857117</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>42.285714285714306</v>
+        <v>35.428571428571402</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="2"/>
-        <v>21.142857142857164</v>
+        <v>17.714285714285687</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2287,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2380,8 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <f>SUM(C7)</f>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -2371,35 +2389,35 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -2408,111 +2426,111 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <f>SUM(C14:C18)</f>
+      <c r="C14">
+        <f>SUM(C15:C19)</f>
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>11.1</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="10">
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11.2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -2521,55 +2539,55 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <f>SUM(C20:C28)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C21:C29)</f>
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>12.1</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>12</v>
@@ -2578,40 +2596,40 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12.4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -2620,203 +2638,217 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>14</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="10">
-        <v>7</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="10">
+        <v>7</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>15</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10">
         <v>3</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>17</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D13">
-    <sortCondition ref="B3:B13" customList="Critical,High,Medium,Low"/>
+  <sortState ref="A3:D14">
+    <sortCondition ref="B3:B14" customList="Critical,High,Medium,Low"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2968,16 +3000,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -3136,7 +3168,7 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3156,7 +3188,7 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3176,12 +3208,92 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF6884D-5305-4EEA-BB8A-212668D76B49}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F2B4-6AE2-4F8C-B933-FB6F41A1AE93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Test pexeso minigame</t>
+  </si>
+  <si>
+    <t>Write group description</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2306,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,16 +2391,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="10">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2515,16 +2518,16 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="10">
         <v>11.2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3000,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,6 +3297,26 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11.2</v>
+      </c>
+      <c r="B15">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566F2B4-6AE2-4F8C-B933-FB6F41A1AE93}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6366D7-6CB9-4F93-8A96-84E9E7175C78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -105,9 +105,6 @@
     <t>As owner I want the game to contain proceduraly generated mazes</t>
   </si>
   <si>
-    <t>As owenr I want the game to have smooth animation to change scenes</t>
-  </si>
-  <si>
     <t>As owner I want the game to be played from first person view</t>
   </si>
   <si>
@@ -301,6 +298,12 @@
   </si>
   <si>
     <t>Write group description</t>
+  </si>
+  <si>
+    <t>As owner I want the game to have smooth animation to change scenes</t>
+  </si>
+  <si>
+    <t>Make fade in and fade out transition animations</t>
   </si>
 </sst>
 </file>
@@ -596,16 +599,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,7 +1798,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,13 +1875,15 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1902,7 +1907,7 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
@@ -1923,7 +1928,7 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <f>'Project Backloog'!C8</f>
@@ -1942,7 +1947,7 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5">
         <f>'Project Backloog'!C9</f>
@@ -1961,7 +1966,7 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5">
         <f>'Project Backloog'!C10</f>
@@ -1980,7 +1985,7 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="5">
         <f>'Project Backloog'!C11</f>
@@ -1999,7 +2004,7 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5">
         <f>'Project Backloog'!C12</f>
@@ -2018,7 +2023,7 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5">
         <f>'Project Backloog'!C13</f>
@@ -2039,7 +2044,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="5">
         <f>'Project Backloog'!C14</f>
@@ -2060,7 +2065,7 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5">
         <f>'Project Backloog'!C20</f>
@@ -2083,7 +2088,7 @@
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5">
         <f>'Project Backloog'!C30</f>
@@ -2102,7 +2107,7 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <f>'Project Backloog'!C31</f>
@@ -2123,7 +2128,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <f>'Project Backloog'!C32</f>
@@ -2144,7 +2149,7 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="5">
         <f>'Project Backloog'!C33</f>
@@ -2163,7 +2168,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5">
         <f>'Project Backloog'!C34</f>
@@ -2248,19 +2253,19 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2309,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,13 +2414,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,7 +2462,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,7 +2476,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2528,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,7 +2590,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +2604,7 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,7 +2618,7 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,7 +2688,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,7 +2730,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +2738,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="10">
         <v>7</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +2752,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="10">
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,13 +2780,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2904,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -2924,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2944,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2964,10 +2969,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2984,10 +2989,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -3005,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3068,7 +3073,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3088,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3108,10 +3113,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -3128,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3148,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3168,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3188,7 +3193,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3208,7 +3213,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3228,10 +3233,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3248,10 +3253,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3268,10 +3273,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3288,10 +3293,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3308,10 +3313,10 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3327,10 +3332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,6 +3366,26 @@
       </c>
       <c r="F1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6366D7-6CB9-4F93-8A96-84E9E7175C78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CB854-EAF8-42F1-8F80-20250B5B1401}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="105">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -96,18 +96,12 @@
     <t>Done</t>
   </si>
   <si>
-    <t>First person view</t>
-  </si>
-  <si>
     <t>As a owner I want the game to contain memory training exercise</t>
   </si>
   <si>
     <t>As owner I want the game to contain proceduraly generated mazes</t>
   </si>
   <si>
-    <t>As owner I want the game to be played from first person view</t>
-  </si>
-  <si>
     <t>As owenr I want the game to have menu</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>Find nice bush textures</t>
   </si>
   <si>
-    <t>As owner I want the maze to contain statues, which will lead to mini games</t>
-  </si>
-  <si>
     <t>Statues</t>
   </si>
   <si>
@@ -282,9 +273,6 @@
     <t>Design nice looking exit with lights and particles</t>
   </si>
   <si>
-    <t>As owner I want the goma to have pexeso minigame</t>
-  </si>
-  <si>
     <t>Find card assets</t>
   </si>
   <si>
@@ -304,12 +292,78 @@
   </si>
   <si>
     <t>Make fade in and fade out transition animations</t>
+  </si>
+  <si>
+    <t>As owner I want the maze to contain statues</t>
+  </si>
+  <si>
+    <t>As owner I want minigames to be accesed by statues</t>
+  </si>
+  <si>
+    <t>Implement statue interactions</t>
+  </si>
+  <si>
+    <t>Statue interactions</t>
+  </si>
+  <si>
+    <t>As owner I want the game to have pexeso minigame</t>
+  </si>
+  <si>
+    <t>As owner I want the game to have simon says minigame</t>
+  </si>
+  <si>
+    <t>As owner I want the game to contain route solving minigame</t>
+  </si>
+  <si>
+    <t>Find simon says game online</t>
+  </si>
+  <si>
+    <t>Implement minigame</t>
+  </si>
+  <si>
+    <t>Create associations with statue and test</t>
+  </si>
+  <si>
+    <t>Come up with minigame idea</t>
+  </si>
+  <si>
+    <t>Find map for the minigame</t>
+  </si>
+  <si>
+    <t>Come up with stories containing route</t>
+  </si>
+  <si>
+    <t>Implement grid layout on the map</t>
+  </si>
+  <si>
+    <t>Implement game mechanichs</t>
+  </si>
+  <si>
+    <t>Test minigame</t>
+  </si>
+  <si>
+    <t>As owner I want the game to contain hidden objects game</t>
+  </si>
+  <si>
+    <t>As owner I want the game to be played from third person view</t>
+  </si>
+  <si>
+    <t>Import and implement third person controlls</t>
+  </si>
+  <si>
+    <t>Third person view</t>
+  </si>
+  <si>
+    <t>Implement menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,6 +471,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -590,25 +646,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>124</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117.5</c:v>
+                  <c:v>123.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>107</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,25 +744,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>124</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.28571428571428</c:v>
+                  <c:v>111.42857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.571428571428555</c:v>
+                  <c:v>92.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.857142857142833</c:v>
+                  <c:v>74.285714285714292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.142857142857117</c:v>
+                  <c:v>55.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.428571428571402</c:v>
+                  <c:v>37.142857142857153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.714285714285687</c:v>
+                  <c:v>18.57142857142858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,50 +1944,54 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>18</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5">
-        <f>'Project Backloog'!C8</f>
+        <f>'Project Backloog'!C11</f>
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
@@ -1947,29 +2007,31 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5">
-        <f>'Project Backloog'!C9</f>
-        <v>2</v>
+        <f>'Project Backloog'!C12</f>
+        <v>1</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5">
-        <f>'Project Backloog'!C10</f>
+        <f>'Project Backloog'!C13</f>
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -1985,10 +2047,10 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5">
-        <f>'Project Backloog'!C11</f>
+        <f>'Project Backloog'!C14</f>
         <v>8</v>
       </c>
       <c r="C9" s="6"/>
@@ -2004,10 +2066,10 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5">
-        <f>'Project Backloog'!C12</f>
+        <f>'Project Backloog'!C15</f>
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
@@ -2023,10 +2085,10 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5">
-        <f>'Project Backloog'!C13</f>
+        <f>'Project Backloog'!C16</f>
         <v>1</v>
       </c>
       <c r="C11" s="6"/>
@@ -2044,10 +2106,10 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5">
-        <f>'Project Backloog'!C14</f>
+        <f>'Project Backloog'!C17</f>
         <v>11</v>
       </c>
       <c r="C12" s="6">
@@ -2065,10 +2127,10 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5">
-        <f>'Project Backloog'!C20</f>
+        <f>'Project Backloog'!C23</f>
         <v>30</v>
       </c>
       <c r="C13" s="6">
@@ -2088,10 +2150,10 @@
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5">
-        <f>'Project Backloog'!C30</f>
+        <f>'Project Backloog'!C33</f>
         <v>10</v>
       </c>
       <c r="C14" s="6"/>
@@ -2107,10 +2169,10 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="5">
-        <f>'Project Backloog'!C31</f>
+        <f>'Project Backloog'!C34</f>
         <v>7</v>
       </c>
       <c r="C15" s="6"/>
@@ -2128,10 +2190,10 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5">
-        <f>'Project Backloog'!C32</f>
+        <f>'Project Backloog'!C35</f>
         <v>3</v>
       </c>
       <c r="C16" s="6"/>
@@ -2149,10 +2211,10 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5">
-        <f>'Project Backloog'!C33</f>
+        <f>'Project Backloog'!C36</f>
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
@@ -2168,10 +2230,10 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5">
-        <f>'Project Backloog'!C34</f>
+        <f>'Project Backloog'!C37</f>
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
@@ -2188,26 +2250,30 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="B19" s="5">
-        <f>'Project Backloog'!C35</f>
-        <v>0</v>
+        <f>'Project Backloog'!C38</f>
+        <v>1</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
-        <f>'Project Backloog'!C36</f>
+        <f>'Project Backloog'!C39</f>
         <v>0</v>
       </c>
       <c r="C20" s="6"/>
@@ -2241,31 +2307,31 @@
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B20)</f>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5">
         <f>B23-(SUM(C2:C14))</f>
-        <v>117.5</v>
+        <v>123.5</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" ref="D23:H23" si="1">C23-(SUM(D2:D14))</f>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2274,31 +2340,31 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B20)</f>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C24" s="7">
         <f>B24-($B$24/7)</f>
-        <v>106.28571428571428</v>
+        <v>111.42857142857143</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ref="D24:H24" si="2">C24-($B$24/7)</f>
-        <v>88.571428571428555</v>
+        <v>92.857142857142861</v>
       </c>
       <c r="E24" s="7">
         <f t="shared" si="2"/>
-        <v>70.857142857142833</v>
+        <v>74.285714285714292</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="2"/>
-        <v>53.142857142857117</v>
+        <v>55.714285714285722</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="2"/>
-        <v>35.428571428571402</v>
+        <v>37.142857142857153</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="2"/>
-        <v>17.714285714285687</v>
+        <v>18.57142857142858</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2312,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,21 +2429,21 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,11 +2454,11 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <f>SUM(C7)</f>
-        <v>5</v>
+        <f>SUM(C7:C9)</f>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,128 +2469,127 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8">
+      <c r="D8" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="D10" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>26</v>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <f>SUM(C15:C19)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>11.1</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>12</v>
@@ -2533,330 +2598,382 @@
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <f>SUM(C18:C22)</f>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11.4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11.5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12</v>
+        <v>11.3</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <f>SUM(C21:C29)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11.4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11.5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <f>SUM(C24:C32)</f>
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>12.1</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C24" s="10">
         <v>0.5</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="D24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>12.2</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C25" s="10">
         <v>0.5</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="D25" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>12.3</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C26" s="10">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12.4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12.5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12.6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
+      <c r="D26" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>12.7</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>14</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="10">
-        <v>7</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>44</v>
+      <c r="A31">
+        <v>12.8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>15</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>50</v>
+      <c r="A32">
+        <v>12.9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C34" s="10">
+        <v>7</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>15</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="10">
         <v>3</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>18</v>
+      <c r="D35" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>20</v>
+      <c r="A37" s="10">
+        <v>17</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>21</v>
+      <c r="A38" s="10">
+        <v>18</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D14">
-    <sortCondition ref="B3:B14" customList="Critical,High,Medium,Low"/>
+  <sortState ref="A3:D17">
+    <sortCondition ref="B3:B17" customList="Critical,High,Medium,Low"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2909,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -2929,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -2949,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2969,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2989,10 +3106,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -3011,7 +3128,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3073,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3093,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3113,10 +3230,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -3133,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3153,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3173,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3193,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3213,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3233,10 +3350,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3253,10 +3370,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3273,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3293,10 +3410,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3313,10 +3430,10 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3332,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3385,6 +3502,26 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3395,15 +3532,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -3430,6 +3568,285 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIA\SEP4 - Serious Games\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CB854-EAF8-42F1-8F80-20250B5B1401}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D1C3E-AED7-4F50-A925-93A6A72FD69F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>As a owner I want the game to contain memory training exercise</t>
   </si>
   <si>
-    <t>As owner I want the game to contain proceduraly generated mazes</t>
-  </si>
-  <si>
     <t>As owenr I want the game to have menu</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>Implement menu</t>
+  </si>
+  <si>
+    <t>As owner I want the game to contain procedurally generated mazes</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Správně" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,7 +494,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -619,22 +619,22 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/19/2018</c:v>
+                  <c:v>19/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/22/2018</c:v>
+                  <c:v>22/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/25/2018</c:v>
+                  <c:v>25/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/28/2018</c:v>
+                  <c:v>28/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/31/2018</c:v>
+                  <c:v>31/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6/3/2018</c:v>
+                  <c:v>03/06/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -717,22 +717,22 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/19/2018</c:v>
+                  <c:v>19/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/22/2018</c:v>
+                  <c:v>22/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/25/2018</c:v>
+                  <c:v>25/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/28/2018</c:v>
+                  <c:v>28/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/31/2018</c:v>
+                  <c:v>31/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6/3/2018</c:v>
+                  <c:v>03/06/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <f>'Project Backloog'!C11</f>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <f>'Project Backloog'!C12</f>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <f>'Project Backloog'!C13</f>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5">
         <f>'Project Backloog'!C14</f>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <f>'Project Backloog'!C15</f>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5">
         <f>'Project Backloog'!C16</f>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5">
         <f>'Project Backloog'!C17</f>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5">
         <f>'Project Backloog'!C23</f>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5">
         <f>'Project Backloog'!C33</f>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5">
         <f>'Project Backloog'!C34</f>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5">
         <f>'Project Backloog'!C35</f>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5">
         <f>'Project Backloog'!C36</f>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <f>'Project Backloog'!C37</f>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5">
         <f>'Project Backloog'!C38</f>
@@ -2381,7 +2381,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,13 +2522,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,7 +2584,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2782,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2846,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="10">
         <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,13 +2860,13 @@
         <v>15</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,13 +2874,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,13 +2888,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3046,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3066,7 +3066,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3086,10 +3086,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3106,10 +3106,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3190,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3210,10 +3210,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3230,10 +3230,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -3250,7 +3250,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3270,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3290,7 +3290,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3310,7 +3310,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3330,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3350,10 +3350,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3370,10 +3370,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3390,10 +3390,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3410,10 +3410,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3430,10 +3430,10 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3597,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3617,7 +3617,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3657,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3677,7 +3677,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3697,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3717,7 +3717,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3737,7 +3737,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3757,10 +3757,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3774,10 +3774,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIA\SEP4 - Serious Games\SEP4\Documentation\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171D1C3E-AED7-4F50-A925-93A6A72FD69F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3605EB67-74CD-4E73-9CA9-110562833CFC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
     <sheet name="Project Backloog" sheetId="2" r:id="rId2"/>
-    <sheet name="19.04" sheetId="4" r:id="rId3"/>
-    <sheet name="22.04" sheetId="7" r:id="rId4"/>
-    <sheet name="25.04" sheetId="9" r:id="rId5"/>
-    <sheet name="28.04" sheetId="10" r:id="rId6"/>
-    <sheet name="01.05" sheetId="11" r:id="rId7"/>
-    <sheet name="03.05" sheetId="12" r:id="rId8"/>
+    <sheet name="19.05" sheetId="4" r:id="rId3"/>
+    <sheet name="22.05" sheetId="7" r:id="rId4"/>
+    <sheet name="25.05" sheetId="9" r:id="rId5"/>
+    <sheet name="28.05" sheetId="10" r:id="rId6"/>
+    <sheet name="31.05" sheetId="11" r:id="rId7"/>
+    <sheet name="03.06" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'01.05'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'03.05'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25.04'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'28.04'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'03.06'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.05'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'22.05'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25.05'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'28.05'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'31.05'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Project Backloog'!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -123,9 +124,6 @@
     <t>As owner I want project report</t>
   </si>
   <si>
-    <t>As owner I want the game to be controlled via on screen buttons on mobile devices</t>
-  </si>
-  <si>
     <t>Memory training</t>
   </si>
   <si>
@@ -153,9 +151,6 @@
     <t>Project report</t>
   </si>
   <si>
-    <t>Mobile controlls</t>
-  </si>
-  <si>
     <t>Group contract</t>
   </si>
   <si>
@@ -195,12 +190,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>As owner I want nice background music</t>
-  </si>
-  <si>
-    <t>Background music</t>
-  </si>
-  <si>
     <t>As owner I want project description</t>
   </si>
   <si>
@@ -355,6 +344,87 @@
   </si>
   <si>
     <t>As owner I want the game to contain procedurally generated mazes</t>
+  </si>
+  <si>
+    <t>Create scene containing the room image</t>
+  </si>
+  <si>
+    <t>Implement game mechanics responsible for hiding objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Usecase diagram </t>
+  </si>
+  <si>
+    <t>Write Usecase descriptions</t>
+  </si>
+  <si>
+    <t>Create Domain model</t>
+  </si>
+  <si>
+    <t>As owner I want the game to contain quiz</t>
+  </si>
+  <si>
+    <t>Implement firescore after game is won</t>
+  </si>
+  <si>
+    <t>As owner I want the level to end when certain amount of point has been collected</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Find questions for quiz</t>
+  </si>
+  <si>
+    <t>Implement scene showing the questions</t>
+  </si>
+  <si>
+    <t>Implement mechanics for the quiz</t>
+  </si>
+  <si>
+    <t>Test the quiz minigame</t>
+  </si>
+  <si>
+    <t>Edit introduction</t>
+  </si>
+  <si>
+    <t>Edit use case documents</t>
+  </si>
+  <si>
+    <t>Create activity diagram and decsription</t>
+  </si>
+  <si>
+    <t>Create sequence diagram and description</t>
+  </si>
+  <si>
+    <t>Create class diagram with desacription</t>
+  </si>
+  <si>
+    <t>Merge scrum documetation with main document</t>
+  </si>
+  <si>
+    <t>Find some sound clips for the game</t>
+  </si>
+  <si>
+    <t>Implement sound effects in game</t>
+  </si>
+  <si>
+    <t>Go through the diles in project and check sorting in folders</t>
+  </si>
+  <si>
+    <t>Check if scripts follow SOLID</t>
+  </si>
+  <si>
+    <t>Delete unneccessary files</t>
+  </si>
+  <si>
+    <t>Implement second level</t>
+  </si>
+  <si>
+    <t>Redo scripts responsible for loading previous level</t>
+  </si>
+  <si>
+    <t>Implement select level in menu</t>
   </si>
 </sst>
 </file>
@@ -364,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,8 +474,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +504,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,11 +536,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -473,10 +556,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
-    <cellStyle name="Správně" xfId="1" builtinId="26"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,7 +579,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -583,7 +668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$23</c:f>
+              <c:f>'Burndown Chart'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,52 +704,52 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/05/2018</c:v>
+                  <c:v>5/19/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22/05/2018</c:v>
+                  <c:v>5/22/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25/05/2018</c:v>
+                  <c:v>5/25/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28/05/2018</c:v>
+                  <c:v>5/28/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31/05/2018</c:v>
+                  <c:v>5/31/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03/06/2018</c:v>
+                  <c:v>6/3/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$23:$H$23</c:f>
+              <c:f>'Burndown Chart'!$B$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.5</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,7 +766,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burndown Chart'!$A$24</c:f>
+              <c:f>'Burndown Chart'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -717,52 +802,52 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/05/2018</c:v>
+                  <c:v>5/19/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22/05/2018</c:v>
+                  <c:v>5/22/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25/05/2018</c:v>
+                  <c:v>5/25/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28/05/2018</c:v>
+                  <c:v>5/28/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31/05/2018</c:v>
+                  <c:v>5/31/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>03/06/2018</c:v>
+                  <c:v>6/3/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burndown Chart'!$B$24:$H$24</c:f>
+              <c:f>'Burndown Chart'!$B$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>130</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.42857142857143</c:v>
+                  <c:v>84.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.857142857142861</c:v>
+                  <c:v>70.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.285714285714292</c:v>
+                  <c:v>56.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.714285714285722</c:v>
+                  <c:v>42.428571428571445</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.142857142857153</c:v>
+                  <c:v>28.285714285714302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.57142857142858</c:v>
+                  <c:v>14.14285714285716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,13 +1604,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>857249</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1851,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +2002,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I20" si="0">SUM(C2:H2)</f>
+        <f t="shared" ref="I2:I18" si="0">SUM(C2:H2)</f>
         <v>5</v>
       </c>
     </row>
@@ -1944,7 +2029,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
@@ -1965,11 +2050,11 @@
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <f>'Project Backloog'!C6</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -1977,40 +2062,44 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>18</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
-        <f>'Project Backloog'!C11</f>
-        <v>6</v>
+        <f>'Project Backloog'!C12</f>
+        <v>4</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
-        <f>'Project Backloog'!C12</f>
+        <f>'Project Backloog'!C13</f>
         <v>1</v>
       </c>
       <c r="C7" s="6"/>
@@ -2028,11 +2117,11 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
-        <f>'Project Backloog'!C13</f>
-        <v>2</v>
+        <f>'Project Backloog'!C14</f>
+        <v>4</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2047,48 +2136,52 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5">
-        <f>'Project Backloog'!C14</f>
-        <v>8</v>
+        <f>'Project Backloog'!C15</f>
+        <v>3</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <v>3</v>
+      </c>
       <c r="I9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
-        <f>'Project Backloog'!C15</f>
-        <v>20</v>
+        <f>'Project Backloog'!C16</f>
+        <v>3.5</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <v>3.5</v>
+      </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
-        <f>'Project Backloog'!C16</f>
+        <f>'Project Backloog'!C17</f>
         <v>1</v>
       </c>
       <c r="C11" s="6"/>
@@ -2106,11 +2199,11 @@
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5">
-        <f>'Project Backloog'!C17</f>
-        <v>11</v>
+        <f>'Project Backloog'!C18</f>
+        <v>6.5</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -2119,19 +2212,21 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5">
-        <f>'Project Backloog'!C23</f>
-        <v>30</v>
+        <f>'Project Backloog'!C24</f>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>0.5</v>
@@ -2140,44 +2235,50 @@
         <v>2.5</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B14" s="5">
-        <f>'Project Backloog'!C33</f>
-        <v>10</v>
+        <f>'Project Backloog'!C34</f>
+        <v>7</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>7</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
-        <f>'Project Backloog'!C34</f>
-        <v>7</v>
+        <f>'Project Backloog'!C35</f>
+        <v>3</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -2185,15 +2286,15 @@
       <c r="H15" s="6"/>
       <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5">
-        <f>'Project Backloog'!C35</f>
+        <f>'Project Backloog'!C36</f>
         <v>3</v>
       </c>
       <c r="C16" s="6"/>
@@ -2211,164 +2312,128 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B17" s="5">
-        <f>'Project Backloog'!C36</f>
-        <v>2</v>
+        <f>'Project Backloog'!C37</f>
+        <v>1</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5">
-        <f>'Project Backloog'!C37</f>
+        <f>'Project Backloog'!C38</f>
         <v>3</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <v>3</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="5">
-        <f>'Project Backloog'!C38</f>
-        <v>1</v>
-      </c>
+      <c r="A19" s="11"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="5">
-        <f>'Project Backloog'!C39</f>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="5">
+        <f>SUM(B2:B18)</f>
+        <v>99</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B21-(SUM(C2:C13))</f>
+        <v>92.5</v>
+      </c>
+      <c r="D21" s="5">
+        <f>C21-(SUM(D2:D13))</f>
+        <v>82</v>
+      </c>
+      <c r="E21" s="5">
+        <f>D21-(SUM(E2:E13))</f>
+        <v>81</v>
+      </c>
+      <c r="F21" s="5">
+        <f>E21-(SUM(F2:F13))</f>
+        <v>56</v>
+      </c>
+      <c r="G21" s="5">
+        <f>F21-(SUM(G2:G13))</f>
+        <v>45</v>
+      </c>
+      <c r="H21" s="5">
+        <f>G21-(SUM(H2:H13))</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="5">
-        <f>SUM(B2:B20)</f>
-        <v>130</v>
-      </c>
-      <c r="C23" s="5">
-        <f>B23-(SUM(C2:C14))</f>
-        <v>123.5</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:H23" si="1">C23-(SUM(D2:D14))</f>
-        <v>113</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUM(B2:B18)</f>
+        <v>99</v>
+      </c>
+      <c r="C22" s="7">
+        <f>B22-($B$22/7)</f>
+        <v>84.857142857142861</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" ref="D22:H22" si="1">C22-($B$22/7)</f>
+        <v>70.714285714285722</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="F23" s="5">
+        <v>56.571428571428584</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="G23" s="5">
+        <v>42.428571428571445</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="H23" s="5">
+        <v>28.285714285714302</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5">
-        <f>SUM(B2:B20)</f>
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <f>B24-($B$24/7)</f>
-        <v>111.42857142857143</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" ref="D24:H24" si="2">C24-($B$24/7)</f>
-        <v>92.857142857142861</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="2"/>
-        <v>74.285714285714292</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="2"/>
-        <v>55.714285714285722</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="2"/>
-        <v>37.142857142857153</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="2"/>
-        <v>18.57142857142858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>14.14285714285716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" s="8" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2378,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2455,7 @@
     <col min="4" max="4" width="111.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2404,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2415,24 +2480,24 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2443,25 +2508,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <f>SUM(C7:C9)</f>
+      <c r="C6" s="10">
+        <f>SUM(C7:C11)</f>
+        <v>31</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4.0999999999999996</v>
       </c>
@@ -2472,10 +2537,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4.2</v>
       </c>
@@ -2486,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4.3</v>
       </c>
@@ -2500,10 +2565,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>4.4000000000000004</v>
       </c>
@@ -2511,128 +2576,132 @@
         <v>12</v>
       </c>
       <c r="C10" s="10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D11" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>3.5</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C17">
-        <f>SUM(C18:C22)</f>
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18">
+        <f>SUM(C19:C23)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>11.1</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>11.2</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>12</v>
@@ -2641,26 +2710,26 @@
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>11.3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11.4</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -2669,55 +2738,56 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <f>SUM(C24:C32)</f>
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <f>SUM(C25:C33)</f>
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>12.1</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>12.2</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>12</v>
@@ -2726,68 +2796,68 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="10">
         <v>2</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>12.4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C28" s="10">
+        <v>6</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>12.5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>12.6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12.7</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2796,12 +2866,12 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2810,35 +2880,35 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,13 +2916,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="10">
         <v>7</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,120 +2930,116 @@
         <v>15</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
+      <c r="A36" s="10">
+        <v>17</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>18</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>84</v>
+      <c r="D38" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D17">
-    <sortCondition ref="B3:B17" customList="Critical,High,Medium,Low"/>
+  <autoFilter ref="A1:D37" xr:uid="{E1890C91-41DE-4118-B150-ACC40707D376}"/>
+  <sortState ref="A3:D18">
+    <sortCondition ref="B3:B18" customList="Critical,High,Medium,Low"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3026,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3046,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3066,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3086,10 +3152,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3106,10 +3172,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -3170,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3190,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3210,10 +3276,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3230,10 +3296,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -3250,7 +3316,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3270,7 +3336,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3290,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3310,7 +3376,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3330,7 +3396,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3350,10 +3416,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3370,10 +3436,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -3390,10 +3456,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3410,10 +3476,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3430,10 +3496,10 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3493,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3513,7 +3579,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3535,14 +3601,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -3577,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3597,7 +3663,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3617,7 +3683,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3637,7 +3703,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3657,7 +3723,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3677,7 +3743,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3697,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3717,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3737,7 +3803,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3757,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3774,10 +3840,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -3793,6 +3859,18 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -3801,6 +3879,18 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -3809,43 +3899,86 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>4.4000000000000004</v>
+        <v>12.4</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>4.4000000000000004</v>
+        <v>12.4</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>4.4000000000000004</v>
+        <v>12.4</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
   </sheetData>
@@ -3855,15 +3988,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -3891,6 +4025,186 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12.2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12.4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4.5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4.5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12.5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12.5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12.5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3898,16 +4212,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -3934,6 +4249,159 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3605EB67-74CD-4E73-9CA9-110562833CFC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A9E1E-B68B-4AC3-8ABE-9CC618EEA10D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2375,27 +2375,27 @@
         <v>99</v>
       </c>
       <c r="C21" s="5">
-        <f>B21-(SUM(C2:C13))</f>
+        <f t="shared" ref="C21:H21" si="1">B21-(SUM(C2:C13))</f>
         <v>92.5</v>
       </c>
       <c r="D21" s="5">
-        <f>C21-(SUM(D2:D13))</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E21" s="5">
-        <f>D21-(SUM(E2:E13))</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="F21" s="5">
-        <f>E21-(SUM(F2:F13))</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="G21" s="5">
-        <f>F21-(SUM(G2:G13))</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H21" s="5">
-        <f>G21-(SUM(H2:H13))</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -2412,23 +2412,23 @@
         <v>84.857142857142861</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:H22" si="1">C22-($B$22/7)</f>
+        <f t="shared" ref="D22:H22" si="2">C22-($B$22/7)</f>
         <v>70.714285714285722</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56.571428571428584</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.428571428571445</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.285714285714302</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.14285714285716</v>
       </c>
     </row>
@@ -2443,10 +2443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,61 +2979,6 @@
       </c>
       <c r="D38" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5A9E1E-B68B-4AC3-8ABE-9CC618EEA10D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161D553-4280-4125-9772-B75B0850CDB2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>Implement select level in menu</t>
+  </si>
+  <si>
+    <t>Create screenshots of code for documentation snippets</t>
+  </si>
+  <si>
+    <t>Write implementation document using snippets and description</t>
   </si>
 </sst>
 </file>
@@ -731,25 +737,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>99</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.5</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,25 +835,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>99</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.857142857142861</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.714285714285722</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.571428571428584</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.428571428571445</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.285714285714302</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.14285714285716</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,7 +2232,7 @@
       </c>
       <c r="B13" s="5">
         <f>'Project Backloog'!C24</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
         <v>0.5</v>
@@ -2241,10 +2247,12 @@
       <c r="G13" s="6">
         <v>4</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6">
+        <v>2</v>
+      </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2372,31 +2380,31 @@
       </c>
       <c r="B21" s="5">
         <f>SUM(B2:B18)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" ref="C21:H21" si="1">B21-(SUM(C2:C13))</f>
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2405,31 +2413,31 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B18)</f>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="7">
         <f>B22-($B$22/7)</f>
-        <v>84.857142857142861</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" ref="D22:H22" si="2">C22-($B$22/7)</f>
-        <v>70.714285714285722</v>
+        <v>70</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="2"/>
-        <v>56.571428571428584</v>
+        <v>56</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>42.428571428571445</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>28.285714285714302</v>
+        <v>28</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>14.14285714285716</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2445,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,7 +2787,7 @@
       </c>
       <c r="C24">
         <f>SUM(C25:C33)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -2863,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>58</v>
@@ -4157,17 +4165,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -4347,6 +4355,40 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>12.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161D553-4280-4125-9772-B75B0850CDB2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D4AF3-BCA7-4460-BAA3-D7FECAD9CA87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="132">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>Write implementation document using snippets and description</t>
+  </si>
+  <si>
+    <t>Create new content for quiz and room minigame</t>
+  </si>
+  <si>
+    <t>Write script responsible for switching level when enough fire point is collected</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +493,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,8 +530,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -541,13 +559,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -563,11 +597,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,7 +791,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1945,7 +1981,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K27" sqref="K27:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,7 +2203,7 @@
       </c>
       <c r="B10" s="5">
         <f>'Project Backloog'!C16</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2175,11 +2211,11 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2345,7 +2381,7 @@
       </c>
       <c r="B18" s="5">
         <f>'Project Backloog'!C38</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2353,11 +2389,11 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2404,7 +2440,7 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,7 +2490,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,7 +2653,7 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
@@ -2671,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -2864,22 +2900,22 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="10">
         <v>12.6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2893,7 +2929,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -2907,7 +2943,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2921,7 +2957,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>38</v>
@@ -2935,7 +2971,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>38</v>
@@ -2949,7 +2985,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>48</v>
@@ -2963,7 +2999,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>12</v>
@@ -2976,16 +3012,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="A38" s="10">
+        <v>17</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3147,7 +3183,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3359,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3343,7 +3379,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4165,17 +4201,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -4206,6 +4242,9 @@
       <c r="A2">
         <v>11.5</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>119</v>
       </c>
@@ -4223,6 +4262,9 @@
       <c r="A3">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>120</v>
       </c>
@@ -4240,6 +4282,9 @@
       <c r="A4">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>121</v>
       </c>
@@ -4257,6 +4302,9 @@
       <c r="A5">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>122</v>
       </c>
@@ -4274,6 +4322,9 @@
       <c r="A6">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>123</v>
       </c>
@@ -4291,6 +4342,9 @@
       <c r="A7">
         <v>8</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>124</v>
       </c>
@@ -4308,6 +4362,9 @@
       <c r="A8">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>125</v>
       </c>
@@ -4325,6 +4382,9 @@
       <c r="A9">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>126</v>
       </c>
@@ -4342,6 +4402,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -4357,16 +4420,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12.6</v>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -4376,8 +4442,11 @@
       <c r="A12">
         <v>12.6</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -4386,6 +4455,46 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12.6</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D4AF3-BCA7-4460-BAA3-D7FECAD9CA87}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B1874F-7320-4DA0-AC80-21DF69591E4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>Actual remaining hours</t>
   </si>
@@ -403,15 +403,6 @@
     <t>Merge scrum documetation with main document</t>
   </si>
   <si>
-    <t>Find some sound clips for the game</t>
-  </si>
-  <si>
-    <t>Implement sound effects in game</t>
-  </si>
-  <si>
-    <t>Go through the diles in project and check sorting in folders</t>
-  </si>
-  <si>
     <t>Check if scripts follow SOLID</t>
   </si>
   <si>
@@ -437,6 +428,39 @@
   </si>
   <si>
     <t>Write script responsible for switching level when enough fire point is collected</t>
+  </si>
+  <si>
+    <t>Implement temple sound effect in game</t>
+  </si>
+  <si>
+    <t>Find some sound clip for the fire</t>
+  </si>
+  <si>
+    <t>Write the initiation for the process report</t>
+  </si>
+  <si>
+    <t>Write the project decription in process report</t>
+  </si>
+  <si>
+    <t>Write testing documetation</t>
+  </si>
+  <si>
+    <t>Donne</t>
+  </si>
+  <si>
+    <t>Perform a requirement testing</t>
+  </si>
+  <si>
+    <t>Write result and conclusion</t>
+  </si>
+  <si>
+    <t>Write project future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marek </t>
+  </si>
+  <si>
+    <t>Go through the files in project and check sorting in folders</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,15 +517,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,11 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -575,11 +587,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -597,13 +608,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,25 +783,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,25 +881,25 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>98</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>80.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>64.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>48.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>32.166666666666686</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>16.083333333333353</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:K34"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,7 +2131,7 @@
       </c>
       <c r="B6" s="5">
         <f>'Project Backloog'!C12</f>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2129,11 +2139,11 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2170,7 +2180,9 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
       <c r="I8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2250,16 +2262,18 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2282,7 @@
       </c>
       <c r="B13" s="5">
         <f>'Project Backloog'!C24</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>0.5</v>
@@ -2284,11 +2298,11 @@
         <v>4</v>
       </c>
       <c r="H13" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2416,31 +2430,31 @@
       </c>
       <c r="B21" s="5">
         <f>SUM(B2:B18)</f>
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" ref="C21:H21" si="1">B21-(SUM(C2:C13))</f>
-        <v>91.5</v>
+        <f>B21-(SUM(C2:C18))</f>
+        <v>90</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" ref="D21:H21" si="1">C21-(SUM(D2:D18))</f>
+        <v>65.5</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>63.5</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>38.5</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>27.5</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,31 +2463,31 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B18)</f>
-        <v>98</v>
+        <v>96.5</v>
       </c>
       <c r="C22" s="7">
-        <f>B22-($B$22/7)</f>
-        <v>84</v>
+        <f>B22-($B$22/6)</f>
+        <v>80.416666666666671</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" ref="D22:H22" si="2">C22-($B$22/7)</f>
-        <v>70</v>
+        <f t="shared" ref="D22:H22" si="2">C22-($B$22/6)</f>
+        <v>64.333333333333343</v>
       </c>
       <c r="E22" s="7">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>48.250000000000014</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>32.166666666666686</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>16.083333333333353</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2487,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2513,7 @@
     <col min="4" max="4" width="111.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -2541,7 +2555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -2570,7 +2584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4.0999999999999996</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4.2</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4.3</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>4.4000000000000004</v>
       </c>
@@ -2626,7 +2640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>4.5</v>
       </c>
@@ -2640,22 +2654,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>6</v>
       </c>
@@ -2669,52 +2682,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>7</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>5.5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>10</v>
       </c>
@@ -2728,22 +2738,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <f>SUM(C19:C23)</f>
         <v>6.5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>11.1</v>
       </c>
@@ -2757,7 +2767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>11.2</v>
       </c>
@@ -2771,65 +2781,64 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>11.3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>11.4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>11.5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>0.5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <f>SUM(C25:C33)</f>
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>12.1</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>12.2</v>
       </c>
@@ -2857,7 +2866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>12.3</v>
       </c>
@@ -2871,7 +2880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>12.4</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>12.5</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>12.6</v>
       </c>
@@ -2913,45 +2922,45 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>12.6</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>12.6</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>12.6</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4201,10 +4210,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4266,13 +4275,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -4286,13 +4295,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -4306,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -4326,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -4346,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -4366,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -4386,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -4406,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -4426,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -4446,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -4466,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -4486,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -4495,6 +4504,126 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11.3</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11.4</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12.7</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12.7</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12.8</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12.9</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/Scrum/Scrum.xlsx
+++ b/Documentation/Scrum/Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src\SEP4\Documentation\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIA\SEP4 - Serious Games\SEP4\Documentation\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B1874F-7320-4DA0-AC80-21DF69591E4A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F73A91-C1C4-4C78-86FF-EE41E4FB2D74}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Maze textures</t>
   </si>
   <si>
-    <t>Find algorythm for maze genration</t>
-  </si>
-  <si>
     <t>Implement algorythm in project</t>
   </si>
   <si>
@@ -461,6 +458,9 @@
   </si>
   <si>
     <t>Go through the files in project and check sorting in folders</t>
+  </si>
+  <si>
+    <t>Find algorythm for maze generation</t>
   </si>
 </sst>
 </file>
@@ -611,9 +611,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Špatně" xfId="2" builtinId="27"/>
+    <cellStyle name="Správně" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +631,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="cs-CZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -756,22 +756,22 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/19/2018</c:v>
+                  <c:v>19/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/22/2018</c:v>
+                  <c:v>22/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/25/2018</c:v>
+                  <c:v>25/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/28/2018</c:v>
+                  <c:v>28/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/31/2018</c:v>
+                  <c:v>31/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6/3/2018</c:v>
+                  <c:v>03/06/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,22 +854,22 @@
                   <c:v>Estimated</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5/19/2018</c:v>
+                  <c:v>19/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5/22/2018</c:v>
+                  <c:v>22/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5/25/2018</c:v>
+                  <c:v>25/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5/28/2018</c:v>
+                  <c:v>28/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5/31/2018</c:v>
+                  <c:v>31/05/2018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6/3/2018</c:v>
+                  <c:v>03/06/2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5">
         <f>'Project Backloog'!C5</f>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5">
         <f>'Project Backloog'!C35</f>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
         <f>'Project Backloog'!C36</f>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5">
         <f>'Project Backloog'!C37</f>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5">
         <f>'Project Backloog'!C38</f>
@@ -2538,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2659,13 +2659,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="15">
         <v>1.5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,7 +2820,7 @@
         <v>0.5</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,7 +2849,7 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,7 +2863,7 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,13 +2997,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3110,7 +3110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3170,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3274,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -3294,7 +3294,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -3314,7 +3314,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3334,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3354,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3374,7 +3374,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3414,7 +3414,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -3454,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -3474,7 +3474,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -3494,7 +3494,7 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -3661,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -3701,7 +3701,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3721,7 +3721,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3741,7 +3741,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -3761,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -3781,7 +3781,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -3801,7 +3801,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -3821,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -3838,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -3858,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -3878,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -3898,7 +3898,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
         <v>37</v>
@@ -3918,7 +3918,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -3938,7 +3938,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -3958,7 +3958,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -4031,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -4091,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -4111,7 +4111,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -4131,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>37</v>
@@ -4151,7 +4151,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -4171,7 +4171,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -4191,7 +4191,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -4212,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4255,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -4295,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -4315,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -4335,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -4355,7 +4355,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -4375,7 +4375,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -4395,7 +4395,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -4415,7 +4415,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
@@ -4455,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -4475,7 +4475,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -4495,7 +4495,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -4515,7 +4515,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -4535,7 +4535,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -4555,7 +4555,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -4575,7 +4575,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -4615,10 +4615,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
         <v>137</v>
-      </c>
-      <c r="D20" t="s">
-        <v>138</v>
       </c>
       <c r="E20">
         <v>1</v>
